--- a/docs/contributors-list.xlsx
+++ b/docs/contributors-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13360" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>1:幕后工作者</t>
   </si>
@@ -35,6 +35,9 @@
     <t>roleName</t>
   </si>
   <si>
+    <t>image_temp</t>
+  </si>
+  <si>
     <t>Pablo</t>
   </si>
   <si>
@@ -51,6 +54,21 @@
   </si>
   <si>
     <t>SBT制作与发行</t>
+  </si>
+  <si>
+    <t>coding解决</t>
+  </si>
+  <si>
+    <t>1.用哪个图片模板，可以自己上传指定（一批用一个）</t>
+  </si>
+  <si>
+    <t>2.活动的名称（例如瓦猫之夏），可以从event创建获得</t>
+  </si>
+  <si>
+    <t>3.nickname，rolename从excel获得</t>
+  </si>
+  <si>
+    <t>4.钱包地址从excel获得</t>
   </si>
   <si>
     <t>2:幕前工作者</t>
@@ -64,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,16 +117,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,14 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -137,16 +140,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,7 +165,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +181,51 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,46 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,25 +262,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,103 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,43 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,22 +463,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,7 +472,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +493,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -500,17 +518,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,24 +536,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,121 +573,121 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,7 +838,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7231380" y="67310"/>
+          <a:off x="7580630" y="67310"/>
           <a:ext cx="2137410" cy="486410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1091,13 +1109,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="10.8461538461538" customWidth="1"/>
     <col min="3" max="3" width="54.1538461538462" customWidth="1"/>
@@ -1112,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1125,43 +1143,78 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:4">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:5">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
       <c r="A6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1176,8 +1229,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1185,17 +1238,18 @@
     <col min="2" max="2" width="10.8461538461538" customWidth="1"/>
     <col min="3" max="3" width="54.1538461538462" customWidth="1"/>
     <col min="4" max="4" width="15.6153846153846" customWidth="1"/>
+    <col min="5" max="5" width="14.5192307692308" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="2:6">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1208,30 +1262,42 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:4">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
